--- a/Validierung/coverage/processing_coverage.xlsx
+++ b/Validierung/coverage/processing_coverage.xlsx
@@ -748,11 +748,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="402594376"/>
-        <c:axId val="164954352"/>
+        <c:axId val="388497288"/>
+        <c:axId val="388489056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402594376"/>
+        <c:axId val="388497288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +795,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164954352"/>
+        <c:crossAx val="388489056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -803,9 +803,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164954352"/>
+        <c:axId val="388489056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -854,7 +855,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402594376"/>
+        <c:crossAx val="388497288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1747,7 +1748,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
